--- a/DM/databank/banking/deal_management/DealManagement_Test_39771.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39771.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="448">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -2052,25 +2052,118 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2078,99 +2171,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2464,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C138" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="I171" sqref="I171"/>
+    <sheetView tabSelected="1" topLeftCell="H138" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="L157" sqref="L157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3335,11 +3335,11 @@
       <c r="I20" s="14"/>
     </row>
     <row r="22" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
     </row>
     <row r="23" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
@@ -3393,24 +3393,24 @@
       </c>
     </row>
     <row r="27" spans="1:117" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="125"/>
       <c r="BM27" s="16"/>
       <c r="BN27" s="16"/>
       <c r="BO27" s="16"/>
@@ -6287,12 +6287,12 @@
       <c r="DM60" s="16"/>
     </row>
     <row r="62" spans="1:117" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="110" t="s">
+      <c r="A62" s="88" t="s">
         <v>255</v>
       </c>
-      <c r="B62" s="111"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="112"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="90"/>
     </row>
     <row r="63" spans="1:117" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
@@ -6330,17 +6330,17 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="110" t="s">
+      <c r="A66" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="B66" s="111"/>
-      <c r="C66" s="111"/>
-      <c r="D66" s="111"/>
-      <c r="E66" s="111"/>
-      <c r="F66" s="111"/>
-      <c r="G66" s="111"/>
-      <c r="H66" s="111"/>
-      <c r="I66" s="112"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="90"/>
     </row>
     <row r="67" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
@@ -6414,11 +6414,11 @@
       <c r="I68" s="31"/>
       <c r="J68" s="41" t="str">
         <f t="shared" ref="J68:J79" ca="1" si="0">TEXT(TODAY()-30,"MM-DD-YYYY")</f>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K68" s="41" t="str">
         <f t="shared" ref="K68:K79" ca="1" si="1">TEXT(TODAY()-1,"MM-DD-YYYY")</f>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L68" s="32" t="s">
         <v>168</v>
@@ -6456,11 +6456,11 @@
       <c r="I69" s="31"/>
       <c r="J69" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K69" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L69" s="32" t="s">
         <v>168</v>
@@ -6498,11 +6498,11 @@
       <c r="I70" s="31"/>
       <c r="J70" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K70" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L70" s="32" t="s">
         <v>168</v>
@@ -6540,11 +6540,11 @@
       <c r="I71" s="31"/>
       <c r="J71" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K71" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L71" s="32" t="s">
         <v>168</v>
@@ -6582,11 +6582,11 @@
       <c r="I72" s="31"/>
       <c r="J72" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K72" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L72" s="32" t="s">
         <v>168</v>
@@ -6624,11 +6624,11 @@
       <c r="I73" s="31"/>
       <c r="J73" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K73" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L73" s="32" t="s">
         <v>168</v>
@@ -6666,11 +6666,11 @@
       <c r="I74" s="31"/>
       <c r="J74" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K74" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L74" s="32" t="s">
         <v>168</v>
@@ -6708,11 +6708,11 @@
       <c r="I75" s="31"/>
       <c r="J75" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K75" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L75" s="32" t="s">
         <v>168</v>
@@ -6750,11 +6750,11 @@
       <c r="I76" s="31"/>
       <c r="J76" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K76" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L76" s="32" t="s">
         <v>168</v>
@@ -6792,11 +6792,11 @@
       <c r="I77" s="31"/>
       <c r="J77" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K77" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L77" s="32" t="s">
         <v>168</v>
@@ -6834,11 +6834,11 @@
       <c r="I78" s="31"/>
       <c r="J78" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K78" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L78" s="32" t="s">
         <v>168</v>
@@ -6876,11 +6876,11 @@
       <c r="I79" s="31"/>
       <c r="J79" s="41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>07-02-2023</v>
+        <v>07-09-2023</v>
       </c>
       <c r="K79" s="41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>07-31-2023</v>
+        <v>08-07-2023</v>
       </c>
       <c r="L79" s="32" t="s">
         <v>168</v>
@@ -6894,27 +6894,27 @@
       </c>
     </row>
     <row r="81" spans="1:78" ht="50.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="95" t="s">
+      <c r="A81" s="126" t="s">
         <v>260</v>
       </c>
-      <c r="B81" s="95"/>
-      <c r="C81" s="95"/>
-      <c r="D81" s="95"/>
-      <c r="E81" s="95"/>
-      <c r="F81" s="95"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="95"/>
-      <c r="I81" s="95"/>
-      <c r="J81" s="95"/>
-      <c r="K81" s="95"/>
+      <c r="B81" s="126"/>
+      <c r="C81" s="126"/>
+      <c r="D81" s="126"/>
+      <c r="E81" s="126"/>
+      <c r="F81" s="126"/>
+      <c r="G81" s="126"/>
+      <c r="H81" s="126"/>
+      <c r="I81" s="126"/>
+      <c r="J81" s="126"/>
+      <c r="K81" s="126"/>
     </row>
     <row r="83" spans="1:78" ht="16.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="96" t="s">
+      <c r="A83" s="127" t="s">
         <v>261</v>
       </c>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
     </row>
     <row r="84" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A84" s="42" t="s">
@@ -7043,33 +7043,33 @@
       <c r="S88" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="T88" s="124" t="s">
+      <c r="T88" s="110" t="s">
         <v>286</v>
       </c>
-      <c r="U88" s="125"/>
-      <c r="V88" s="126"/>
-      <c r="W88" s="124" t="s">
+      <c r="U88" s="111"/>
+      <c r="V88" s="112"/>
+      <c r="W88" s="110" t="s">
         <v>287</v>
       </c>
-      <c r="X88" s="126"/>
+      <c r="X88" s="112"/>
       <c r="Y88" s="48"/>
-      <c r="Z88" s="121" t="s">
+      <c r="Z88" s="107" t="s">
         <v>288</v>
       </c>
-      <c r="AA88" s="122"/>
-      <c r="AB88" s="122"/>
-      <c r="AC88" s="122"/>
-      <c r="AD88" s="122"/>
-      <c r="AE88" s="122"/>
-      <c r="AF88" s="123"/>
-      <c r="AG88" s="121" t="s">
+      <c r="AA88" s="108"/>
+      <c r="AB88" s="108"/>
+      <c r="AC88" s="108"/>
+      <c r="AD88" s="108"/>
+      <c r="AE88" s="108"/>
+      <c r="AF88" s="109"/>
+      <c r="AG88" s="107" t="s">
         <v>289</v>
       </c>
-      <c r="AH88" s="122"/>
-      <c r="AI88" s="122"/>
-      <c r="AJ88" s="122"/>
-      <c r="AK88" s="122"/>
-      <c r="AL88" s="123"/>
+      <c r="AH88" s="108"/>
+      <c r="AI88" s="108"/>
+      <c r="AJ88" s="108"/>
+      <c r="AK88" s="108"/>
+      <c r="AL88" s="109"/>
       <c r="AM88" s="49"/>
       <c r="AN88" s="50"/>
       <c r="AO88" s="50"/>
@@ -7255,11 +7255,11 @@
       </c>
       <c r="G90" s="57" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="H90" s="57" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="I90" s="55"/>
       <c r="J90" s="55">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="C94" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-15</v>
+        <v>2023-09-22</v>
       </c>
       <c r="D94" s="33" t="s">
         <v>153</v>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="C95" s="57" t="str">
         <f ca="1">TEXT(TODAY()+45,"YYYY-MM-DD")</f>
-        <v>2023-09-15</v>
+        <v>2023-09-22</v>
       </c>
       <c r="D95" s="33" t="s">
         <v>153</v>
@@ -7616,63 +7616,63 @@
       <c r="BZ95" s="51"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A97" s="88" t="s">
+      <c r="A97" s="115" t="s">
         <v>356</v>
       </c>
-      <c r="B97" s="89"/>
-      <c r="C97" s="89"/>
-      <c r="D97" s="89"/>
-      <c r="E97" s="89"/>
-      <c r="F97" s="89"/>
-      <c r="G97" s="89"/>
-      <c r="H97" s="89"/>
-      <c r="I97" s="89"/>
-      <c r="J97" s="89"/>
+      <c r="B97" s="116"/>
+      <c r="C97" s="116"/>
+      <c r="D97" s="116"/>
+      <c r="E97" s="116"/>
+      <c r="F97" s="116"/>
+      <c r="G97" s="116"/>
+      <c r="H97" s="116"/>
+      <c r="I97" s="116"/>
+      <c r="J97" s="116"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="62"/>
       <c r="B98" s="63"/>
-      <c r="C98" s="115" t="s">
+      <c r="C98" s="117" t="s">
         <v>332</v>
       </c>
-      <c r="D98" s="115"/>
-      <c r="E98" s="115"/>
-      <c r="F98" s="115"/>
-      <c r="G98" s="115"/>
-      <c r="H98" s="115"/>
-      <c r="I98" s="115"/>
-      <c r="J98" s="115"/>
-      <c r="K98" s="115"/>
+      <c r="D98" s="117"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+      <c r="G98" s="117"/>
+      <c r="H98" s="117"/>
+      <c r="I98" s="117"/>
+      <c r="J98" s="117"/>
+      <c r="K98" s="117"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A99" s="93" t="s">
+      <c r="A99" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="B99" s="93" t="s">
+      <c r="B99" s="113" t="s">
         <v>334</v>
       </c>
-      <c r="C99" s="97" t="s">
+      <c r="C99" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="D99" s="98"/>
-      <c r="E99" s="98"/>
-      <c r="F99" s="99"/>
-      <c r="G99" s="100" t="s">
+      <c r="D99" s="103"/>
+      <c r="E99" s="103"/>
+      <c r="F99" s="94"/>
+      <c r="G99" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="H99" s="101"/>
-      <c r="I99" s="101"/>
-      <c r="J99" s="102"/>
-      <c r="K99" s="93" t="s">
+      <c r="H99" s="104"/>
+      <c r="I99" s="104"/>
+      <c r="J99" s="96"/>
+      <c r="K99" s="113" t="s">
         <v>337</v>
       </c>
-      <c r="L99" s="93" t="s">
+      <c r="L99" s="113" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="94"/>
-      <c r="B100" s="94"/>
+      <c r="A100" s="114"/>
+      <c r="B100" s="114"/>
       <c r="C100" s="64" t="s">
         <v>339</v>
       </c>
@@ -7697,8 +7697,8 @@
       <c r="J100" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K100" s="94"/>
-      <c r="L100" s="94"/>
+      <c r="K100" s="114"/>
+      <c r="L100" s="114"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="40" t="s">
@@ -7748,76 +7748,76 @@
       </c>
     </row>
     <row r="103" spans="1:26" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="88" t="s">
+      <c r="A103" s="115" t="s">
         <v>345</v>
       </c>
-      <c r="B103" s="89"/>
-      <c r="C103" s="89"/>
-      <c r="D103" s="89"/>
-      <c r="E103" s="89"/>
-      <c r="F103" s="89"/>
-      <c r="G103" s="89"/>
-      <c r="H103" s="89"/>
-      <c r="I103" s="89"/>
-      <c r="J103" s="89"/>
-      <c r="K103" s="89"/>
-      <c r="L103" s="89"/>
+      <c r="B103" s="116"/>
+      <c r="C103" s="116"/>
+      <c r="D103" s="116"/>
+      <c r="E103" s="116"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="116"/>
+      <c r="H103" s="116"/>
+      <c r="I103" s="116"/>
+      <c r="J103" s="116"/>
+      <c r="K103" s="116"/>
+      <c r="L103" s="116"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A104" s="90" t="s">
+      <c r="A104" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="B104" s="90" t="s">
+      <c r="B104" s="119" t="s">
         <v>346</v>
       </c>
       <c r="C104" s="118" t="s">
         <v>347</v>
       </c>
-      <c r="D104" s="103" t="s">
+      <c r="D104" s="120" t="s">
         <v>348</v>
       </c>
-      <c r="E104" s="127" t="s">
+      <c r="E104" s="91" t="s">
         <v>332</v>
       </c>
-      <c r="F104" s="127"/>
-      <c r="G104" s="127"/>
-      <c r="H104" s="127"/>
-      <c r="I104" s="106" t="s">
+      <c r="F104" s="91"/>
+      <c r="G104" s="91"/>
+      <c r="H104" s="91"/>
+      <c r="I104" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="J104" s="106"/>
-      <c r="K104" s="106"/>
-      <c r="L104" s="106"/>
+      <c r="J104" s="92"/>
+      <c r="K104" s="92"/>
+      <c r="L104" s="92"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A105" s="91"/>
-      <c r="B105" s="91"/>
-      <c r="C105" s="119"/>
-      <c r="D105" s="104"/>
-      <c r="E105" s="97" t="s">
+      <c r="A105" s="99"/>
+      <c r="B105" s="99"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="121"/>
+      <c r="E105" s="93" t="s">
         <v>350</v>
       </c>
-      <c r="F105" s="99"/>
-      <c r="G105" s="100" t="s">
+      <c r="F105" s="94"/>
+      <c r="G105" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="H105" s="102"/>
-      <c r="I105" s="97" t="s">
+      <c r="H105" s="96"/>
+      <c r="I105" s="93" t="s">
         <v>350</v>
       </c>
-      <c r="J105" s="99"/>
-      <c r="K105" s="100" t="s">
+      <c r="J105" s="94"/>
+      <c r="K105" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="L105" s="102"/>
+      <c r="L105" s="96"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A106" s="92"/>
-      <c r="B106" s="92" t="s">
+      <c r="A106" s="100"/>
+      <c r="B106" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C106" s="120"/>
-      <c r="D106" s="105"/>
+      <c r="C106" s="102"/>
+      <c r="D106" s="122"/>
       <c r="E106" s="64" t="s">
         <v>351</v>
       </c>
@@ -7892,61 +7892,61 @@
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A109" s="88" t="s">
+      <c r="A109" s="115" t="s">
         <v>356</v>
       </c>
-      <c r="B109" s="89"/>
-      <c r="C109" s="89"/>
-      <c r="D109" s="89"/>
-      <c r="E109" s="89"/>
-      <c r="F109" s="89"/>
-      <c r="G109" s="89"/>
-      <c r="H109" s="89"/>
-      <c r="I109" s="89"/>
-      <c r="J109" s="89"/>
+      <c r="B109" s="116"/>
+      <c r="C109" s="116"/>
+      <c r="D109" s="116"/>
+      <c r="E109" s="116"/>
+      <c r="F109" s="116"/>
+      <c r="G109" s="116"/>
+      <c r="H109" s="116"/>
+      <c r="I109" s="116"/>
+      <c r="J109" s="116"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" s="62"/>
       <c r="B110" s="63"/>
-      <c r="C110" s="115" t="s">
+      <c r="C110" s="117" t="s">
         <v>332</v>
       </c>
-      <c r="D110" s="115"/>
-      <c r="E110" s="115"/>
-      <c r="F110" s="115"/>
-      <c r="G110" s="115"/>
-      <c r="H110" s="115"/>
-      <c r="I110" s="115"/>
-      <c r="J110" s="115"/>
-      <c r="K110" s="115"/>
+      <c r="D110" s="117"/>
+      <c r="E110" s="117"/>
+      <c r="F110" s="117"/>
+      <c r="G110" s="117"/>
+      <c r="H110" s="117"/>
+      <c r="I110" s="117"/>
+      <c r="J110" s="117"/>
+      <c r="K110" s="117"/>
       <c r="Z110" s="69"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A111" s="93" t="s">
+      <c r="A111" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="B111" s="93" t="s">
+      <c r="B111" s="113" t="s">
         <v>334</v>
       </c>
-      <c r="C111" s="97" t="s">
+      <c r="C111" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="D111" s="98"/>
-      <c r="E111" s="98"/>
-      <c r="F111" s="99"/>
-      <c r="G111" s="100" t="s">
+      <c r="D111" s="103"/>
+      <c r="E111" s="103"/>
+      <c r="F111" s="94"/>
+      <c r="G111" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="H111" s="101"/>
-      <c r="I111" s="101"/>
-      <c r="J111" s="102"/>
-      <c r="K111" s="113" t="s">
+      <c r="H111" s="104"/>
+      <c r="I111" s="104"/>
+      <c r="J111" s="96"/>
+      <c r="K111" s="105" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A112" s="94"/>
-      <c r="B112" s="94"/>
+      <c r="A112" s="114"/>
+      <c r="B112" s="114"/>
       <c r="C112" s="64" t="s">
         <v>339</v>
       </c>
@@ -7971,7 +7971,7 @@
       <c r="J112" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K112" s="114"/>
+      <c r="K112" s="106"/>
     </row>
     <row r="113" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A113" s="55" t="s">
@@ -8082,7 +8082,7 @@
       <c r="I117" s="72"/>
       <c r="J117" s="73">
         <f ca="1">TODAY()</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="K117" s="73">
         <v>234</v>
@@ -8092,26 +8092,26 @@
       </c>
     </row>
     <row r="119" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A119" s="116" t="s">
+      <c r="A119" s="97" t="s">
         <v>404</v>
       </c>
-      <c r="B119" s="117"/>
-      <c r="C119" s="117"/>
-      <c r="D119" s="117"/>
-      <c r="E119" s="117"/>
-      <c r="F119" s="117"/>
-      <c r="G119" s="117"/>
-      <c r="H119" s="117"/>
-      <c r="I119" s="117"/>
-      <c r="J119" s="117"/>
-      <c r="K119" s="117"/>
-      <c r="L119" s="117"/>
-      <c r="M119" s="117"/>
-      <c r="N119" s="117"/>
-      <c r="O119" s="117"/>
-      <c r="P119" s="117"/>
-      <c r="Q119" s="117"/>
-      <c r="R119" s="117"/>
+      <c r="B119" s="98"/>
+      <c r="C119" s="98"/>
+      <c r="D119" s="98"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="98"/>
+      <c r="G119" s="98"/>
+      <c r="H119" s="98"/>
+      <c r="I119" s="98"/>
+      <c r="J119" s="98"/>
+      <c r="K119" s="98"/>
+      <c r="L119" s="98"/>
+      <c r="M119" s="98"/>
+      <c r="N119" s="98"/>
+      <c r="O119" s="98"/>
+      <c r="P119" s="98"/>
+      <c r="Q119" s="98"/>
+      <c r="R119" s="98"/>
       <c r="S119" s="79"/>
       <c r="T119" s="79"/>
       <c r="U119" s="79"/>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="D121" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E121" s="78"/>
       <c r="F121" s="78" t="s">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="D122" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E122" s="76"/>
       <c r="F122" s="76" t="s">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="D123" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-08-31</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E123" s="81"/>
       <c r="F123" s="81" t="s">
@@ -8402,26 +8402,26 @@
       </c>
     </row>
     <row r="125" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A125" s="116" t="s">
+      <c r="A125" s="97" t="s">
         <v>403</v>
       </c>
-      <c r="B125" s="117"/>
-      <c r="C125" s="117"/>
-      <c r="D125" s="117"/>
-      <c r="E125" s="117"/>
-      <c r="F125" s="117"/>
-      <c r="G125" s="117"/>
-      <c r="H125" s="117"/>
-      <c r="I125" s="117"/>
-      <c r="J125" s="117"/>
-      <c r="K125" s="117"/>
-      <c r="L125" s="117"/>
-      <c r="M125" s="117"/>
-      <c r="N125" s="117"/>
-      <c r="O125" s="117"/>
-      <c r="P125" s="117"/>
-      <c r="Q125" s="117"/>
-      <c r="R125" s="117"/>
+      <c r="B125" s="98"/>
+      <c r="C125" s="98"/>
+      <c r="D125" s="98"/>
+      <c r="E125" s="98"/>
+      <c r="F125" s="98"/>
+      <c r="G125" s="98"/>
+      <c r="H125" s="98"/>
+      <c r="I125" s="98"/>
+      <c r="J125" s="98"/>
+      <c r="K125" s="98"/>
+      <c r="L125" s="98"/>
+      <c r="M125" s="98"/>
+      <c r="N125" s="98"/>
+      <c r="O125" s="98"/>
+      <c r="P125" s="98"/>
+      <c r="Q125" s="98"/>
+      <c r="R125" s="98"/>
       <c r="S125" s="80"/>
       <c r="T125" s="80"/>
       <c r="U125" s="80"/>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="D127" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E127" s="78"/>
       <c r="F127" s="78" t="s">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="D128" s="77" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E128" s="76"/>
       <c r="F128" s="76" t="s">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="D129" s="81" t="str">
         <f ca="1">TEXT(TODAY()+30,"YYYY-MM-DD")</f>
-        <v>2023-08-31</v>
+        <v>2023-09-07</v>
       </c>
       <c r="E129" s="81"/>
       <c r="F129" s="81" t="s">
@@ -8716,26 +8716,26 @@
       </c>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A131" s="116" t="s">
+      <c r="A131" s="97" t="s">
         <v>405</v>
       </c>
-      <c r="B131" s="117"/>
-      <c r="C131" s="117"/>
-      <c r="D131" s="117"/>
-      <c r="E131" s="117"/>
-      <c r="F131" s="117"/>
-      <c r="G131" s="117"/>
-      <c r="H131" s="117"/>
-      <c r="I131" s="117"/>
-      <c r="J131" s="117"/>
-      <c r="K131" s="117"/>
-      <c r="L131" s="117"/>
-      <c r="M131" s="117"/>
-      <c r="N131" s="117"/>
-      <c r="O131" s="117"/>
-      <c r="P131" s="117"/>
-      <c r="Q131" s="117"/>
-      <c r="R131" s="117"/>
+      <c r="B131" s="98"/>
+      <c r="C131" s="98"/>
+      <c r="D131" s="98"/>
+      <c r="E131" s="98"/>
+      <c r="F131" s="98"/>
+      <c r="G131" s="98"/>
+      <c r="H131" s="98"/>
+      <c r="I131" s="98"/>
+      <c r="J131" s="98"/>
+      <c r="K131" s="98"/>
+      <c r="L131" s="98"/>
+      <c r="M131" s="98"/>
+      <c r="N131" s="98"/>
+      <c r="O131" s="98"/>
+      <c r="P131" s="98"/>
+      <c r="Q131" s="98"/>
+      <c r="R131" s="98"/>
       <c r="S131" s="83"/>
       <c r="T131" s="83"/>
       <c r="U131" s="83"/>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="D133" s="78" t="str">
         <f ca="1">TEXT(TODAY(),"YYYY-MM-DD")</f>
-        <v>2023-08-01</v>
+        <v>2023-08-08</v>
       </c>
       <c r="E133" s="78"/>
       <c r="F133" s="78" t="str">
@@ -8960,7 +8960,7 @@
       <c r="I137" s="72"/>
       <c r="J137" s="73">
         <f ca="1">TODAY()</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="K137" s="73">
         <v>234</v>
@@ -9036,7 +9036,7 @@
       <c r="I141" s="72"/>
       <c r="J141" s="73">
         <f ca="1">TODAY()</f>
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="K141" s="73">
         <v>234</v>
@@ -9046,76 +9046,76 @@
       </c>
     </row>
     <row r="143" spans="1:48" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="88" t="s">
+      <c r="A143" s="115" t="s">
         <v>345</v>
       </c>
-      <c r="B143" s="89"/>
-      <c r="C143" s="89"/>
-      <c r="D143" s="89"/>
-      <c r="E143" s="89"/>
-      <c r="F143" s="89"/>
-      <c r="G143" s="89"/>
-      <c r="H143" s="89"/>
-      <c r="I143" s="89"/>
-      <c r="J143" s="89"/>
-      <c r="K143" s="89"/>
-      <c r="L143" s="89"/>
+      <c r="B143" s="116"/>
+      <c r="C143" s="116"/>
+      <c r="D143" s="116"/>
+      <c r="E143" s="116"/>
+      <c r="F143" s="116"/>
+      <c r="G143" s="116"/>
+      <c r="H143" s="116"/>
+      <c r="I143" s="116"/>
+      <c r="J143" s="116"/>
+      <c r="K143" s="116"/>
+      <c r="L143" s="116"/>
     </row>
     <row r="144" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A144" s="90" t="s">
+      <c r="A144" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="B144" s="90" t="s">
+      <c r="B144" s="119" t="s">
         <v>346</v>
       </c>
       <c r="C144" s="118" t="s">
         <v>347</v>
       </c>
-      <c r="D144" s="103" t="s">
+      <c r="D144" s="120" t="s">
         <v>348</v>
       </c>
-      <c r="E144" s="127" t="s">
+      <c r="E144" s="91" t="s">
         <v>332</v>
       </c>
-      <c r="F144" s="127"/>
-      <c r="G144" s="127"/>
-      <c r="H144" s="127"/>
-      <c r="I144" s="106" t="s">
+      <c r="F144" s="91"/>
+      <c r="G144" s="91"/>
+      <c r="H144" s="91"/>
+      <c r="I144" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="J144" s="106"/>
-      <c r="K144" s="106"/>
-      <c r="L144" s="106"/>
+      <c r="J144" s="92"/>
+      <c r="K144" s="92"/>
+      <c r="L144" s="92"/>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A145" s="91"/>
-      <c r="B145" s="91"/>
-      <c r="C145" s="119"/>
-      <c r="D145" s="104"/>
-      <c r="E145" s="97" t="s">
+      <c r="A145" s="99"/>
+      <c r="B145" s="99"/>
+      <c r="C145" s="101"/>
+      <c r="D145" s="121"/>
+      <c r="E145" s="93" t="s">
         <v>350</v>
       </c>
-      <c r="F145" s="99"/>
-      <c r="G145" s="100" t="s">
+      <c r="F145" s="94"/>
+      <c r="G145" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="H145" s="102"/>
-      <c r="I145" s="97" t="s">
+      <c r="H145" s="96"/>
+      <c r="I145" s="93" t="s">
         <v>350</v>
       </c>
-      <c r="J145" s="99"/>
-      <c r="K145" s="100" t="s">
+      <c r="J145" s="94"/>
+      <c r="K145" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="L145" s="102"/>
+      <c r="L145" s="96"/>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A146" s="92"/>
-      <c r="B146" s="92" t="s">
+      <c r="A146" s="100"/>
+      <c r="B146" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="120"/>
-      <c r="D146" s="105"/>
+      <c r="C146" s="102"/>
+      <c r="D146" s="122"/>
       <c r="E146" s="64" t="s">
         <v>351</v>
       </c>
@@ -9190,61 +9190,61 @@
       </c>
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A149" s="88" t="s">
+      <c r="A149" s="115" t="s">
         <v>356</v>
       </c>
-      <c r="B149" s="89"/>
-      <c r="C149" s="89"/>
-      <c r="D149" s="89"/>
-      <c r="E149" s="89"/>
-      <c r="F149" s="89"/>
-      <c r="G149" s="89"/>
-      <c r="H149" s="89"/>
-      <c r="I149" s="89"/>
-      <c r="J149" s="89"/>
+      <c r="B149" s="116"/>
+      <c r="C149" s="116"/>
+      <c r="D149" s="116"/>
+      <c r="E149" s="116"/>
+      <c r="F149" s="116"/>
+      <c r="G149" s="116"/>
+      <c r="H149" s="116"/>
+      <c r="I149" s="116"/>
+      <c r="J149" s="116"/>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A150" s="84"/>
       <c r="B150" s="85"/>
-      <c r="C150" s="115" t="s">
+      <c r="C150" s="117" t="s">
         <v>332</v>
       </c>
-      <c r="D150" s="115"/>
-      <c r="E150" s="115"/>
-      <c r="F150" s="115"/>
-      <c r="G150" s="115"/>
-      <c r="H150" s="115"/>
-      <c r="I150" s="115"/>
-      <c r="J150" s="115"/>
-      <c r="K150" s="115"/>
+      <c r="D150" s="117"/>
+      <c r="E150" s="117"/>
+      <c r="F150" s="117"/>
+      <c r="G150" s="117"/>
+      <c r="H150" s="117"/>
+      <c r="I150" s="117"/>
+      <c r="J150" s="117"/>
+      <c r="K150" s="117"/>
       <c r="Z150" s="69"/>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A151" s="93" t="s">
+      <c r="A151" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="B151" s="93" t="s">
+      <c r="B151" s="113" t="s">
         <v>334</v>
       </c>
-      <c r="C151" s="97" t="s">
+      <c r="C151" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="D151" s="98"/>
-      <c r="E151" s="98"/>
-      <c r="F151" s="99"/>
-      <c r="G151" s="100" t="s">
+      <c r="D151" s="103"/>
+      <c r="E151" s="103"/>
+      <c r="F151" s="94"/>
+      <c r="G151" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="H151" s="101"/>
-      <c r="I151" s="101"/>
-      <c r="J151" s="102"/>
-      <c r="K151" s="113" t="s">
+      <c r="H151" s="104"/>
+      <c r="I151" s="104"/>
+      <c r="J151" s="96"/>
+      <c r="K151" s="105" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A152" s="94"/>
-      <c r="B152" s="94"/>
+      <c r="A152" s="114"/>
+      <c r="B152" s="114"/>
       <c r="C152" s="64" t="s">
         <v>339</v>
       </c>
@@ -9269,7 +9269,7 @@
       <c r="J152" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K152" s="114"/>
+      <c r="K152" s="106"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A153" s="55" t="s">
@@ -9311,20 +9311,20 @@
       <c r="K153" s="30"/>
     </row>
     <row r="155" spans="1:26" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="116" t="s">
+      <c r="A155" s="97" t="s">
         <v>424</v>
       </c>
-      <c r="B155" s="117"/>
-      <c r="C155" s="117"/>
-      <c r="D155" s="117"/>
-      <c r="E155" s="117"/>
-      <c r="F155" s="117"/>
+      <c r="B155" s="98"/>
+      <c r="C155" s="98"/>
+      <c r="D155" s="98"/>
+      <c r="E155" s="98"/>
+      <c r="F155" s="98"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A156" s="91" t="s">
+      <c r="A156" s="99" t="s">
         <v>333</v>
       </c>
-      <c r="B156" s="119" t="s">
+      <c r="B156" s="101" t="s">
         <v>334</v>
       </c>
       <c r="C156" s="87" t="s">
@@ -9338,33 +9338,29 @@
       <c r="I156" s="87"/>
       <c r="J156" s="87"/>
       <c r="K156" s="87"/>
-      <c r="L156" s="87"/>
     </row>
     <row r="157" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="91"/>
-      <c r="B157" s="119"/>
-      <c r="C157" s="97" t="s">
+      <c r="A157" s="99"/>
+      <c r="B157" s="101"/>
+      <c r="C157" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="D157" s="98"/>
-      <c r="E157" s="98"/>
-      <c r="F157" s="99"/>
-      <c r="G157" s="100" t="s">
+      <c r="D157" s="103"/>
+      <c r="E157" s="103"/>
+      <c r="F157" s="94"/>
+      <c r="G157" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="H157" s="101"/>
-      <c r="I157" s="101"/>
-      <c r="J157" s="102"/>
-      <c r="K157" s="113" t="s">
-        <v>357</v>
-      </c>
-      <c r="L157" s="113" t="s">
+      <c r="H157" s="104"/>
+      <c r="I157" s="104"/>
+      <c r="J157" s="96"/>
+      <c r="K157" s="105" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A158" s="92"/>
-      <c r="B158" s="120"/>
+      <c r="A158" s="100"/>
+      <c r="B158" s="102"/>
       <c r="C158" s="64" t="s">
         <v>339</v>
       </c>
@@ -9389,8 +9385,7 @@
       <c r="J158" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="K158" s="114"/>
-      <c r="L158" s="114"/>
+      <c r="K158" s="106"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A159" s="70" t="s">
@@ -9418,10 +9413,6 @@
       <c r="I159" s="30"/>
       <c r="J159" s="30"/>
       <c r="K159" s="30" t="str">
-        <f>TEXT(-0.2,"0.00")</f>
-        <v>-0.20</v>
-      </c>
-      <c r="L159" s="30" t="str">
         <f>TEXT(-0.92,"0.00")</f>
         <v>-0.92</v>
       </c>
@@ -9464,26 +9455,22 @@
         <v>86.55</v>
       </c>
       <c r="K160" s="30" t="str">
-        <f>TEXT(-1.15,"0.00")</f>
-        <v>-1.15</v>
-      </c>
-      <c r="L160" s="30" t="str">
         <f>TEXT(-0.92,"0.00")</f>
         <v>-0.92</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="110" t="s">
+      <c r="A161" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="B161" s="111"/>
-      <c r="C161" s="111"/>
-      <c r="D161" s="111"/>
-      <c r="E161" s="111"/>
-      <c r="F161" s="111"/>
-      <c r="G161" s="111"/>
-      <c r="H161" s="111"/>
-      <c r="I161" s="112"/>
+      <c r="B161" s="89"/>
+      <c r="C161" s="89"/>
+      <c r="D161" s="89"/>
+      <c r="E161" s="89"/>
+      <c r="F161" s="89"/>
+      <c r="G161" s="89"/>
+      <c r="H161" s="89"/>
+      <c r="I161" s="90"/>
     </row>
     <row r="162" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="25" t="s">
@@ -9554,11 +9541,11 @@
       <c r="I163" s="31"/>
       <c r="J163" s="41" t="str">
         <f ca="1">TEXT(TODAY()-65,"DD-MMM-YY")</f>
-        <v>28-May-23</v>
+        <v>04-Jun-23</v>
       </c>
       <c r="K163" s="41" t="str">
         <f ca="1">TEXT(TODAY()-35,"DD-MMM-YY")</f>
-        <v>27-Jun-23</v>
+        <v>04-Jul-23</v>
       </c>
       <c r="L163" s="32" t="s">
         <v>168</v>
@@ -9595,11 +9582,11 @@
       <c r="I164" s="31"/>
       <c r="J164" s="41" t="str">
         <f ca="1">TEXT(TODAY()-95,"DD-MMM-YY")</f>
-        <v>28-Apr-23</v>
+        <v>05-May-23</v>
       </c>
       <c r="K164" s="41" t="str">
         <f ca="1">TEXT(TODAY()-65,"DD-MMM-YY")</f>
-        <v>28-May-23</v>
+        <v>04-Jun-23</v>
       </c>
       <c r="L164" s="32" t="s">
         <v>168</v>
@@ -9655,20 +9642,43 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A161:I161"/>
-    <mergeCell ref="E144:H144"/>
-    <mergeCell ref="I144:L144"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="I145:J145"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="C157:F157"/>
-    <mergeCell ref="G157:J157"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="L157:L158"/>
+  <mergeCells count="64">
+    <mergeCell ref="A109:J109"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="G111:J111"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:F151"/>
+    <mergeCell ref="G151:J151"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="C150:K150"/>
+    <mergeCell ref="A131:R131"/>
+    <mergeCell ref="A143:L143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="A151:A152"/>
     <mergeCell ref="AG88:AL88"/>
     <mergeCell ref="T88:V88"/>
     <mergeCell ref="W88:X88"/>
@@ -9685,42 +9695,18 @@
     <mergeCell ref="A119:R119"/>
     <mergeCell ref="C110:K110"/>
     <mergeCell ref="A111:A112"/>
-    <mergeCell ref="G111:J111"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:F151"/>
-    <mergeCell ref="G151:J151"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="C150:K150"/>
-    <mergeCell ref="A131:R131"/>
-    <mergeCell ref="A143:L143"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="A149:J149"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:P27"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="A109:J109"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="A161:I161"/>
+    <mergeCell ref="E144:H144"/>
+    <mergeCell ref="I144:L144"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="C157:F157"/>
+    <mergeCell ref="G157:J157"/>
+    <mergeCell ref="K157:K158"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C62 OCX133 NTB133 NJF133 MZJ133 MPN133 MFR133 LVV133 LLZ133 KSH133 KIL133 JYP133 JOT133 JEX133 IVB133 ILF133 IBJ133 HRN133 HHR133 GXV133 GNZ133 GED133 FUH133 FKL133 LCD133 FAP133 EQT133 EGX133 DXB133 DNF133 DDJ133 CTN133 CJR133 BZV133 BPZ133 BGD133 AWH133 AML133 ACP133 ST133 IX133 WVJ133 WLN133 WBR133 VRV133 VHZ133 UYD133 UOH133 UEL133 TUP133 TKT133 TAX133 SRB133 SHF133 RXJ133 RNN133 RDR133 QTV133 QJZ133 QAD133 PQH133 PGL133 OWP133 OMT133 MPN121:MPN123 MZJ121:MZJ123 NJF121:NJF123 NTB121:NTB123 OCX121:OCX123 OMT121:OMT123 OWP121:OWP123 PGL121:PGL123 PQH121:PQH123 QAD121:QAD123 QJZ121:QJZ123 QTV121:QTV123 RDR121:RDR123 RNN121:RNN123 RXJ121:RXJ123 SHF121:SHF123 SRB121:SRB123 TAX121:TAX123 TKT121:TKT123 TUP121:TUP123 UEL121:UEL123 UOH121:UOH123 UYD121:UYD123 VHZ121:VHZ123 VRV121:VRV123 WBR121:WBR123 WLN121:WLN123 WVJ121:WVJ123 IX121:IX123 ST121:ST123 ACP121:ACP123 AML121:AML123 AWH121:AWH123 BGD121:BGD123 BPZ121:BPZ123 BZV121:BZV123 CJR121:CJR123 CTN121:CTN123 DDJ121:DDJ123 DNF121:DNF123 DXB121:DXB123 EGX121:EGX123 EQT121:EQT123 FAP121:FAP123 LCD121:LCD123 FKL121:FKL123 FUH121:FUH123 GED121:GED123 GNZ121:GNZ123 GXV121:GXV123 HHR121:HHR123 HRN121:HRN123 IBJ121:IBJ123 ILF121:ILF123 IVB121:IVB123 JEX121:JEX123 JOT121:JOT123 JYP121:JYP123 KIL121:KIL123 KSH121:KSH123 LLZ121:LLZ123 LVV121:LVV123 MFR121:MFR123 MZJ127:MZJ129 NJF127:NJF129 NTB127:NTB129 OCX127:OCX129 OMT127:OMT129 OWP127:OWP129 PGL127:PGL129 PQH127:PQH129 QAD127:QAD129 QJZ127:QJZ129 QTV127:QTV129 RDR127:RDR129 RNN127:RNN129 RXJ127:RXJ129 SHF127:SHF129 SRB127:SRB129 TAX127:TAX129 TKT127:TKT129 TUP127:TUP129 UEL127:UEL129 UOH127:UOH129 UYD127:UYD129 VHZ127:VHZ129 VRV127:VRV129 WBR127:WBR129 WLN127:WLN129 WVJ127:WVJ129 IX127:IX129 ST127:ST129 ACP127:ACP129 AML127:AML129 AWH127:AWH129 BGD127:BGD129 BPZ127:BPZ129 BZV127:BZV129 CJR127:CJR129 CTN127:CTN129 DDJ127:DDJ129 DNF127:DNF129 DXB127:DXB129 EGX127:EGX129 EQT127:EQT129 FAP127:FAP129 LCD127:LCD129 FKL127:FKL129 FUH127:FUH129 GED127:GED129 GNZ127:GNZ129 GXV127:GXV129 HHR127:HHR129 HRN127:HRN129 IBJ127:IBJ129 ILF127:ILF129 IVB127:IVB129 JEX127:JEX129 JOT127:JOT129 JYP127:JYP129 KIL127:KIL129 KSH127:KSH129 LLZ127:LLZ129 LVV127:LVV129 MFR127:MFR129 MPN127:MPN129">

--- a/DM/databank/banking/deal_management/DealManagement_Test_39771.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39771.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12590"/>
   </bookViews>
   <sheets>
     <sheet name="TEST_DATA" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="464">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1412,28 +1412,76 @@
     <t>DM_RATEVALUE</t>
   </si>
   <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8242238826","dealId":"4336599994","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7818600086","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7818600087","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7818600088","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"7810014088","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-01","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4336599994","modelId":"8242238826","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7810014092","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-01","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7818600086","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7818600087","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7818600088","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8242238826","dealId":"4336599994","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7818600094","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7818600095","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7818600096","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"7810014092","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-31","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4336599994","modelId":"8242238826","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7810014093","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-31","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7818600094","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7818600095","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7818600096","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8242238826","dealId":"4336599994","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7818600089","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7818600090","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7818600091","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"7810014089","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-01","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4336599994","modelId":"8242238826","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7810014094","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-01","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7818600089","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7818600090","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7818600091","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8242238826","dealId":"4336599994","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"7818600100","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"7818600101","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"7818600102","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"7810014094","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-31","assignmentLevel":"Customer Agreed"}]}}}</t>
-  </si>
-  <si>
-    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4336599994","modelId":"8242238826","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"7810014095","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-31","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7818600100","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7818600101","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"7818600102","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7811179304","dealId":"0334868558","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4118600727","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4118600728","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4118600729","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4110014425","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0334868558","modelId":"7811179304","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4110014429","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4118600727","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4118600728","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4118600729","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7811179304","dealId":"0334868558","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4118600735","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4118600736","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4118600737","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4110014429","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0334868558","modelId":"7811179304","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4110014430","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4118600735","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4118600736","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4118600737","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7811179304","dealId":"0334868558","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4118600730","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4118600731","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4118600732","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"4110014426","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0334868558","modelId":"7811179304","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4110014431","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4118600730","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4118600731","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4118600732","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"7811179304","dealId":"0334868558","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4118600741","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4118600742","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4118600743","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"4110014431","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"0334868558","modelId":"7811179304","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4110014432","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4118600741","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4118600742","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4118600743","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8271800732","dealId":"5776918985","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4108601214","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4108601215","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4108601216","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4100014680","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5776918985","modelId":"8271800732","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4100014684","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4108601214","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4108601215","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4108601216","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8271800732","dealId":"5776918985","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4108601222","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4108601223","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4108601224","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4100014684","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5776918985","modelId":"8271800732","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4100014685","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4108601222","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4108601223","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4108601224","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8271800732","dealId":"5776918985","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4108601217","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4108601218","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4108601219","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"4100014681","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5776918985","modelId":"8271800732","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4100014686","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-08","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4108601217","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4108601218","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4108601219","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"8271800732","dealId":"5776918985","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4108601228","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4108601229","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4108601230","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"4100014686","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"5776918985","modelId":"8271800732","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4100014687","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-07","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4108601228","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4108601229","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4108601230","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5397943613","dealId":"4285769610","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"9168600286","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"9168600287","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"9168600288","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"9160014186","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4285769610","modelId":"5397943613","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9160014190","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600286","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600287","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600288","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5397943613","dealId":"4285769610","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"9168600294","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"9168600295","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"9168600296","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"9160014190","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4285769610","modelId":"5397943613","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9160014191","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600294","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600295","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600296","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5397943613","dealId":"4285769610","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"9168600289","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"9168600290","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"9168600291","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"9160014187","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4285769610","modelId":"5397943613","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9160014192","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600289","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600290","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600291","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"5397943613","dealId":"4285769610","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"9168600300","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"9168600301","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"9168600302","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"9160014192","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4285769610","modelId":"5397943613","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9160014193","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600300","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600301","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600302","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -2464,19 +2512,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H138" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="L157" sqref="L157"/>
+    <sheetView tabSelected="1" topLeftCell="C75" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="M105" sqref="M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.7265625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="94.54296875" customWidth="1" collapsed="1"/>
-    <col min="3" max="11" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="53" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="39.26953125" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="24.6328125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.7265625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="94.54296875" collapsed="true"/>
+    <col min="3" max="11" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="39.26953125" collapsed="true"/>
+    <col min="14" max="16" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="14" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
@@ -8329,10 +8377,10 @@
       </c>
       <c r="Z122" s="76"/>
       <c r="AU122" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="AV122" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
     </row>
     <row r="123" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8395,10 +8443,10 @@
       </c>
       <c r="Z123" s="81"/>
       <c r="AU123" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="AV123" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
     </row>
     <row r="125" spans="1:48" x14ac:dyDescent="0.35">
@@ -8641,10 +8689,10 @@
       </c>
       <c r="Z128" s="76"/>
       <c r="AU128" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="AV128" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="129" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8709,10 +8757,10 @@
       </c>
       <c r="Z129" s="81"/>
       <c r="AU129" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="AV129" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.35">
@@ -9738,13 +9786,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="21.453125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.26953125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="36.90625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="42" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="44.90625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="59.26953125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22.54296875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" customWidth="true" width="21.453125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="36.90625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="44.90625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="59.26953125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="22.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="52" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/DealManagement_Test_39771.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39771.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="472">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1482,6 +1482,30 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4285769610","modelId":"5397943613","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"9160014193","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600300","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600301","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"9168600302","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3799145970","dealId":"9117855949","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4798600436","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4798600437","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4798600438","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4790014260","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9117855949","modelId":"3799145970","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4790014264","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600436","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600437","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600438","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3799145970","dealId":"9117855949","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4798600444","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4798600445","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4798600446","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"4790014264","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9117855949","modelId":"3799145970","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4790014265","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600444","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600445","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600446","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3799145970","dealId":"9117855949","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4798600439","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4798600440","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4798600441","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"4790014261","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9117855949","modelId":"3799145970","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4790014266","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600439","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600440","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600441","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"3799145970","dealId":"9117855949","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"4798600450","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"4798600451","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"4798600452","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"4790014266","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9117855949","modelId":"3799145970","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4790014267","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600450","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600451","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600452","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -8377,10 +8401,10 @@
       </c>
       <c r="Z122" s="76"/>
       <c r="AU122" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="AV122" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8443,10 +8467,10 @@
       </c>
       <c r="Z123" s="81"/>
       <c r="AU123" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="AV123" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="125" spans="1:48" x14ac:dyDescent="0.35">
@@ -8689,10 +8713,10 @@
       </c>
       <c r="Z128" s="76"/>
       <c r="AU128" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="AV128" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="129" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8757,10 +8781,10 @@
       </c>
       <c r="Z129" s="81"/>
       <c r="AU129" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AV129" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.35">

--- a/DM/databank/banking/deal_management/DealManagement_Test_39771.xlsx
+++ b/DM/databank/banking/deal_management/DealManagement_Test_39771.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="488">
   <si>
     <t>SQ. NO.</t>
   </si>
@@ -1506,6 +1506,54 @@
   </si>
   <si>
     <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"9117855949","modelId":"3799145970","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"4790014267","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-09","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600450","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600451","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"4798600452","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4429710891","dealId":"4166907288","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5648600863","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5648600864","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5648600865","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5640014456","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4166907288","modelId":"4429710891","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5640014460","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600863","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600864","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600865","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4429710891","dealId":"4166907288","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5648600871","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5648600872","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5648600873","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5640014460","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4166907288","modelId":"4429710891","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5640014461","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600871","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600872","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600873","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4429710891","dealId":"4166907288","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5648600866","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5648600867","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5648600868","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5640014457","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4166907288","modelId":"4429710891","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5640014462","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600866","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600867","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600868","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"4429710891","dealId":"4166907288","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5648600877","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5648600878","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5648600879","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5640014462","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"4166907288","modelId":"4429710891","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5640014463","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-10","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600877","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600878","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5648600879","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6002215471","dealId":"2252659337","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5748601404","valueAmt":"11","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5748601405","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5748601406","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"Y","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5740014754","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-08-12","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2252659337","modelId":"6002215471","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5740014758","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5748601404","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"11","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5748601405","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"12","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5748601406","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"13","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6002215471","dealId":"2252659337","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5748601412","valueAmt":"12","priceCompDesc":"Price per transaction - Step Tier 1","rcMapId":"2567418376","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5748601413","valueAmt":"13","priceCompDesc":"Price per transaction - Step Tier 2","rcMapId":"7769990702","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5748601414","valueAmt":"14","priceCompDesc":"Price per transaction - Step Tier 3","rcMapId":"4322456059","displaySw":"true","tieredFlag":"STEP","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V4-SEPA Transfers","aggregateSw":"N","priceItemCode":"PI_024","priceCurrencyCode":"USD","priceAsgnId":"5740014758","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRST","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2252659337","modelId":"6002215471","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5740014759","actionFlag":"OVRD","priceItemCode":"PI_024","priceItemDescription":"V4-SEPA Transfers","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRST","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5748601412","priceCompDesc":"Price per transaction - Step Tier 1","valueAmt":"12","displaySw":"true","rcMapId":"2567418376","tieredFlag":"STEP","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5748601413","priceCompDesc":"Price per transaction - Step Tier 2","valueAmt":"13","displaySw":"true","rcMapId":"7769990702","tieredFlag":"STEP","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5748601414","priceCompDesc":"Price per transaction - Step Tier 3","valueAmt":"14","displaySw":"true","rcMapId":"4322456059","tieredFlag":"STEP","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6002215471","dealId":"2252659337","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5748601407","valueAmt":"11","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5748601408","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5748601409","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"Y","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5740014755","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2252659337","modelId":"6002215471","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5740014760","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-08-12","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"Y","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5748601407","priceCompDesc":"Threshold price per transaction","valueAmt":"11","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5748601408","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5748601409","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"modelId":"6002215471","dealId":"2252659337","entityType":"PERS","entityId":"7947575323","pricingAndCommitmentsDetails":{"entityDivision":"IND","entityIdentifierType":"COREG","entityType":"PERS","entityId":"7947575323","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","pricingDetails":[{"txnDailyRatingCrt":"DNRT","priceCompDetails":[{"priceCompId":"5748601418","valueAmt":"12","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"100"},{"priceCompId":"5748601419","valueAmt":"13","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"110"},{"priceCompId":"5748601420","valueAmt":"14","priceCompDesc":"Threshold price per transaction","rcMapId":"1109655113","displaySw":"true","tieredFlag":"THRS","priceCompTier":{"tierSeqNum":"10","upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN"},"priceCompSequenceNo":"120"}],"paTypeFlag":"RGLR","priceItemDescription":"V5-Domestic Funds Transfer Fee","aggregateSw":"N","priceItemCode":"PI_025","priceCurrencyCode":"USD","priceAsgnId":"5740014760","pricingStatus":"PRPD","printIfZero":"Y","ignoreSw":"N","actionFlag":"OVRD","isEligible":"false","scheduleCode":"MONTHLY","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","assignmentLevel":"Customer Agreed"}]}}}</t>
+  </si>
+  <si>
+    <t>{"C1-DealPriceAsgnCommitmentsREST":{"dealId":"2252659337","modelId":"6002215471","entityId":"7947575323","entityType":"PERS","pricingAndCommitmentsDetails":{"entityId":"7947575323","entityType":"PERS","entityIdentifierValue":"Reg_STACKING_COMT_PARENT","entityIdentifierType":"COREG","entityDivision":"IND","pricingDetails":{"priceAsgnId":"5740014761","actionFlag":"OVRD","priceItemCode":"PI_025","priceItemDescription":"V5-Domestic Funds Transfer Fee","pricingStatus":"PRPD","priceCurrencyCode":"USD","rateSchedule":"DM-NBRTH","startDate":"2023-09-11","isEligible":"false","assignmentLevel":"Customer Agreed","paTypeFlag":"RGLR","printIfZero":"Y","txnDailyRatingCrt":"DNRT","ignoreSw":"N","aggregateSw":"N","scheduleCode":"MONTHLY","priceCompDetails":[{"priceCompTier":{"upperLimit":"1000.00","lowerLimit":"0.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5748601418","priceCompDesc":"Threshold price per transaction","valueAmt":"12","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"100"},{"priceCompTier":{"upperLimit":"5000.00","lowerLimit":"1000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5748601419","priceCompDesc":"Threshold price per transaction","valueAmt":"13","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"110"},{"priceCompTier":{"upperLimit":"999999999999.99","lowerLimit":"5000.00","priceCriteria":"NBRTRAN","tierSeqNum":"10"},"priceCompId":"5748601420","priceCompDesc":"Threshold price per transaction","valueAmt":"14","displaySw":"true","rcMapId":"1109655113","tieredFlag":"THRS","priceCompSequenceNo":"120"}]}}}}</t>
   </si>
 </sst>
 </file>
@@ -8401,10 +8449,10 @@
       </c>
       <c r="Z122" s="76"/>
       <c r="AU122" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="AV122" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
     </row>
     <row r="123" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8467,10 +8515,10 @@
       </c>
       <c r="Z123" s="81"/>
       <c r="AU123" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="AV123" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
     </row>
     <row r="125" spans="1:48" x14ac:dyDescent="0.35">
@@ -8713,10 +8761,10 @@
       </c>
       <c r="Z128" s="76"/>
       <c r="AU128" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="AV128" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.35">
@@ -8781,10 +8829,10 @@
       </c>
       <c r="Z129" s="81"/>
       <c r="AU129" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="AV129" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.35">
